--- a/data/gasedges.xlsx
+++ b/data/gasedges.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/yu_wang_1_vanderbilt_edu/Documents/code/Infrastructure-network-simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/yu_wang_1_vanderbilt_edu/Documents/code/Bayesian_Inference/Bayesian_Graph_Learning_2.0/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{A60302EB-33CB-47A6-9213-5383CC94C0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE1C7EA6-753F-4001-89D8-0F1B2536237F}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{40ED3E6D-2CD5-49E3-B70F-3F0E38A72C6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10DBC6B6-6553-4C4A-8FF4-B14185B01985}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F603A4C-DE95-47E9-A8F3-C028EEDEFB56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,13 +35,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>OBJECTID</t>
+  </si>
+  <si>
     <t>START GAS NODE ID</t>
   </si>
   <si>
     <t>END GAS NODE ID</t>
-  </si>
-  <si>
-    <t>OBJECTID</t>
   </si>
 </sst>
 </file>
@@ -49,18 +57,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,12 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -117,7 +116,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -129,7 +128,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -176,6 +175,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -211,6 +227,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,245 +395,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F0065E-A642-4B5D-8156-33EA85D6C6F7}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="25.1328125" customWidth="1"/>
-    <col min="3" max="3" width="29.265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
         <v>16</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>13</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
